--- a/output/cold_start_results.xlsx
+++ b/output/cold_start_results.xlsx
@@ -474,13 +474,13 @@
         <v>0.05167965590953827</v>
       </c>
       <c r="E2">
-        <v>0.005372480023652315</v>
+        <v>0.3729475140571594</v>
       </c>
       <c r="F2">
-        <v>0.005137179512530565</v>
+        <v>0.05214429274201393</v>
       </c>
       <c r="G2">
-        <v>0.005920183844864368</v>
+        <v>0.05191774293780327</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -493,13 +493,13 @@
         <v>0.09593396633863449</v>
       </c>
       <c r="E3">
-        <v>0.01339557580649853</v>
+        <v>0.4816994667053223</v>
       </c>
       <c r="F3">
-        <v>0.0108923614025116</v>
+        <v>0.09600162506103516</v>
       </c>
       <c r="G3">
-        <v>0.0108923614025116</v>
+        <v>0.09586631506681442</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -514,13 +514,13 @@
         <v>0.03527610376477242</v>
       </c>
       <c r="E4">
-        <v>0.005762813147157431</v>
+        <v>0.4013559222221375</v>
       </c>
       <c r="F4">
-        <v>0.007535827346146107</v>
+        <v>0.03426813334226608</v>
       </c>
       <c r="G4">
-        <v>0.004063772037625313</v>
+        <v>0.03665235638618469</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -533,13 +533,13 @@
         <v>0.07560849189758301</v>
       </c>
       <c r="E5">
-        <v>0.01113412715494633</v>
+        <v>0.5591662526130676</v>
       </c>
       <c r="F5">
-        <v>0.01644225791096687</v>
+        <v>0.07780942320823669</v>
       </c>
       <c r="G5">
-        <v>0.009192128665745258</v>
+        <v>0.08551269024610519</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -556,13 +556,13 @@
         <v>0.5049448609352112</v>
       </c>
       <c r="E6">
-        <v>0.05455731973052025</v>
+        <v>0.8469889163970947</v>
       </c>
       <c r="F6">
-        <v>0.05292234197258949</v>
+        <v>0.8601682782173157</v>
       </c>
       <c r="G6">
-        <v>0.04088602587580681</v>
+        <v>0.8583686947822571</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -575,13 +575,13 @@
         <v>0.7446883916854858</v>
       </c>
       <c r="E7">
-        <v>0.5276203751564026</v>
+        <v>0.9553824067115784</v>
       </c>
       <c r="F7">
-        <v>0.1193342804908752</v>
+        <v>0.9532577991485596</v>
       </c>
       <c r="G7">
-        <v>0.09915014356374741</v>
+        <v>0.9536119103431702</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -596,13 +596,13 @@
         <v>0.3956058621406555</v>
       </c>
       <c r="E8">
-        <v>0.03595254570245743</v>
+        <v>0.8469286561012268</v>
       </c>
       <c r="F8">
-        <v>0.05125929042696953</v>
+        <v>0.8521946668624878</v>
       </c>
       <c r="G8">
-        <v>0.02698280662298203</v>
+        <v>0.8669675588607788</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -615,13 +615,13 @@
         <v>0.6371660232543945</v>
       </c>
       <c r="E9">
-        <v>0.2958015203475952</v>
+        <v>0.9558683037757874</v>
       </c>
       <c r="F9">
-        <v>0.1130725219845772</v>
+        <v>0.9482347369194031</v>
       </c>
       <c r="G9">
-        <v>0.06703244149684906</v>
+        <v>0.9525286555290222</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -636,13 +636,13 @@
         <v>0.4460505843162537</v>
       </c>
       <c r="E10">
-        <v>0.0578065849840641</v>
+        <v>0.8395645618438721</v>
       </c>
       <c r="F10">
-        <v>0.09256273508071899</v>
+        <v>0.8692641258239746</v>
       </c>
       <c r="G10">
-        <v>0.0355089008808136</v>
+        <v>0.8717240691184998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -655,13 +655,13 @@
         <v>0.710125744342804</v>
       </c>
       <c r="E11">
-        <v>0.2455327659845352</v>
+        <v>0.9609529972076416</v>
       </c>
       <c r="F11">
-        <v>0.2097948342561722</v>
+        <v>0.974189281463623</v>
       </c>
       <c r="G11">
-        <v>0.07743216305971146</v>
+        <v>0.9682329297065735</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -676,13 +676,13 @@
         <v>0.5675419569015503</v>
       </c>
       <c r="E12">
-        <v>0.07974597811698914</v>
+        <v>0.8840547204017639</v>
       </c>
       <c r="F12">
-        <v>0.0801955983042717</v>
+        <v>0.9004984498023987</v>
       </c>
       <c r="G12">
-        <v>0.02107988297939301</v>
+        <v>0.9009535312652588</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -695,13 +695,13 @@
         <v>0.8149812817573547</v>
       </c>
       <c r="E13">
-        <v>0.5588014721870422</v>
+        <v>0.9760299921035767</v>
       </c>
       <c r="F13">
-        <v>0.1820224672555923</v>
+        <v>0.9760299921035767</v>
       </c>
       <c r="G13">
-        <v>0.05767790228128433</v>
+        <v>0.9820224642753601</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -716,13 +716,13 @@
         <v>0.4109925329685211</v>
       </c>
       <c r="E14">
-        <v>0.07282207906246185</v>
+        <v>0.8616696000099182</v>
       </c>
       <c r="F14">
-        <v>0.1149219498038292</v>
+        <v>0.8822371959686279</v>
       </c>
       <c r="G14">
-        <v>0.06863733381032944</v>
+        <v>0.8865099549293518</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -735,13 +735,13 @@
         <v>0.6861435770988464</v>
       </c>
       <c r="E15">
-        <v>0.2003338932991028</v>
+        <v>0.9674457311630249</v>
       </c>
       <c r="F15">
-        <v>0.2579298913478851</v>
+        <v>0.9641068577766418</v>
       </c>
       <c r="G15">
-        <v>0.1936560869216919</v>
+        <v>0.9641068577766418</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -758,13 +758,13 @@
         <v>0.179208055138588</v>
       </c>
       <c r="E16">
-        <v>0.02768360450863838</v>
+        <v>0.5060648918151855</v>
       </c>
       <c r="F16">
-        <v>0.02857667952775955</v>
+        <v>0.5181587934494019</v>
       </c>
       <c r="G16">
-        <v>0.02235653065145016</v>
+        <v>0.5249014496803284</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -777,13 +777,13 @@
         <v>0.2882273197174072</v>
       </c>
       <c r="E17">
-        <v>0.07036536186933517</v>
+        <v>0.6698240637779236</v>
       </c>
       <c r="F17">
-        <v>0.06359945982694626</v>
+        <v>0.6549391150474548</v>
       </c>
       <c r="G17">
-        <v>0.04871447756886482</v>
+        <v>0.6820027232170105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -798,13 +798,13 @@
         <v>0.02439447306096554</v>
       </c>
       <c r="E18">
-        <v>0.003402608679607511</v>
+        <v>0.38161700963974</v>
       </c>
       <c r="F18">
-        <v>0.002959114499390125</v>
+        <v>0.4006761610507965</v>
       </c>
       <c r="G18">
-        <v>0.004362622741609812</v>
+        <v>0.4277211129665375</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,13 +817,13 @@
         <v>0.04632839560508728</v>
       </c>
       <c r="E19">
-        <v>0.01092551741749048</v>
+        <v>0.5127639174461365</v>
       </c>
       <c r="F19">
-        <v>0.00714360736310482</v>
+        <v>0.5203277468681335</v>
       </c>
       <c r="G19">
-        <v>0.008404243737459183</v>
+        <v>0.5649753212928772</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -838,13 +838,13 @@
         <v>0.04089365527033806</v>
       </c>
       <c r="E20">
-        <v>0.003060962771996856</v>
+        <v>0.4352207183837891</v>
       </c>
       <c r="F20">
-        <v>0.002544916234910488</v>
+        <v>0.4265748262405396</v>
       </c>
       <c r="G20">
-        <v>0.002613251330330968</v>
+        <v>0.4336481690406799</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,13 +857,13 @@
         <v>0.07748548686504364</v>
       </c>
       <c r="E21">
-        <v>0.00648224912583828</v>
+        <v>0.5637295842170715</v>
       </c>
       <c r="F21">
-        <v>0.005954624153673649</v>
+        <v>0.5520464181900024</v>
       </c>
       <c r="G21">
-        <v>0.006180749274790287</v>
+        <v>0.59531170129776</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -878,13 +878,13 @@
         <v>0.05853383988142014</v>
       </c>
       <c r="E22">
-        <v>0.002209472469985485</v>
+        <v>0.4960165321826935</v>
       </c>
       <c r="F22">
-        <v>0.002213274361565709</v>
+        <v>0.5287386178970337</v>
       </c>
       <c r="G22">
-        <v>0.002695650327950716</v>
+        <v>0.5182593464851379</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -897,13 +897,13 @@
         <v>0.09956903755664825</v>
       </c>
       <c r="E23">
-        <v>0.004797528032213449</v>
+        <v>0.6224995851516724</v>
       </c>
       <c r="F23">
-        <v>0.004838184919208288</v>
+        <v>0.6522198915481567</v>
       </c>
       <c r="G23">
-        <v>0.005122784059494734</v>
+        <v>0.6814929246902466</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -918,13 +918,13 @@
         <v>0.01989926025271416</v>
       </c>
       <c r="E24">
-        <v>0.001426516100764275</v>
+        <v>0.3063552677631378</v>
       </c>
       <c r="F24">
-        <v>0.00123850756790489</v>
+        <v>0.3260668218135834</v>
       </c>
       <c r="G24">
-        <v>0.001317418878898025</v>
+        <v>0.3169974684715271</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -937,13 +937,13 @@
         <v>0.03672259673476219</v>
       </c>
       <c r="E25">
-        <v>0.004645388573408127</v>
+        <v>0.4099955856800079</v>
       </c>
       <c r="F25">
-        <v>0.00296343769878149</v>
+        <v>0.4283368587493896</v>
       </c>
       <c r="G25">
-        <v>0.002843298250809312</v>
+        <v>0.4675022959709167</v>
       </c>
     </row>
   </sheetData>

--- a/output/cold_start_results.xlsx
+++ b/output/cold_start_results.xlsx
@@ -19,7 +19,7 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>TeRCEx</t>
+    <t>ETeR-X</t>
   </si>
   <si>
     <t>USEM</t>

--- a/output/cold_start_results.xlsx
+++ b/output/cold_start_results.xlsx
@@ -19,13 +19,13 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
+    <t>TRecX</t>
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>AITRecX</t>
   </si>
   <si>
     <t>Set</t>
@@ -477,10 +477,10 @@
         <v>0.3729475140571594</v>
       </c>
       <c r="F2">
-        <v>0.05214429274201393</v>
+        <v>0.05191774293780327</v>
       </c>
       <c r="G2">
-        <v>0.05191774293780327</v>
+        <v>0.4528816342353821</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -496,10 +496,10 @@
         <v>0.4816994667053223</v>
       </c>
       <c r="F3">
-        <v>0.09600162506103516</v>
+        <v>0.09586631506681442</v>
       </c>
       <c r="G3">
-        <v>0.09586631506681442</v>
+        <v>0.5727623105049133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0.4013559222221375</v>
       </c>
       <c r="F4">
-        <v>0.03426813334226608</v>
+        <v>0.03665235638618469</v>
       </c>
       <c r="G4">
-        <v>0.03665235638618469</v>
+        <v>0.4777730107307434</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -536,10 +536,10 @@
         <v>0.5591662526130676</v>
       </c>
       <c r="F5">
-        <v>0.07780942320823669</v>
+        <v>0.08551269024610519</v>
       </c>
       <c r="G5">
-        <v>0.08551269024610519</v>
+        <v>0.6414422392845154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -559,10 +559,10 @@
         <v>0.8469889163970947</v>
       </c>
       <c r="F6">
-        <v>0.8601682782173157</v>
+        <v>0.8583686947822571</v>
       </c>
       <c r="G6">
-        <v>0.8583686947822571</v>
+        <v>0.8651416897773743</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -578,10 +578,10 @@
         <v>0.9553824067115784</v>
       </c>
       <c r="F7">
-        <v>0.9532577991485596</v>
+        <v>0.9536119103431702</v>
       </c>
       <c r="G7">
-        <v>0.9536119103431702</v>
+        <v>0.9660056829452515</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -599,10 +599,10 @@
         <v>0.8469286561012268</v>
       </c>
       <c r="F8">
-        <v>0.8521946668624878</v>
+        <v>0.8669675588607788</v>
       </c>
       <c r="G8">
-        <v>0.8669675588607788</v>
+        <v>0.864532470703125</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -618,10 +618,10 @@
         <v>0.9558683037757874</v>
       </c>
       <c r="F9">
-        <v>0.9482347369194031</v>
+        <v>0.9525286555290222</v>
       </c>
       <c r="G9">
-        <v>0.9525286555290222</v>
+        <v>0.9611164331436157</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -639,10 +639,10 @@
         <v>0.8395645618438721</v>
       </c>
       <c r="F10">
-        <v>0.8692641258239746</v>
+        <v>0.8717240691184998</v>
       </c>
       <c r="G10">
-        <v>0.8717240691184998</v>
+        <v>0.8600685000419617</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -658,10 +658,10 @@
         <v>0.9609529972076416</v>
       </c>
       <c r="F11">
-        <v>0.974189281463623</v>
+        <v>0.9682329297065735</v>
       </c>
       <c r="G11">
-        <v>0.9682329297065735</v>
+        <v>0.9715420007705688</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -679,10 +679,10 @@
         <v>0.8840547204017639</v>
       </c>
       <c r="F12">
-        <v>0.9004984498023987</v>
+        <v>0.9009535312652588</v>
       </c>
       <c r="G12">
-        <v>0.9009535312652588</v>
+        <v>0.9003991484642029</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -698,10 +698,10 @@
         <v>0.9760299921035767</v>
       </c>
       <c r="F13">
-        <v>0.9760299921035767</v>
+        <v>0.9820224642753601</v>
       </c>
       <c r="G13">
-        <v>0.9820224642753601</v>
+        <v>0.979026198387146</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -719,10 +719,10 @@
         <v>0.8616696000099182</v>
       </c>
       <c r="F14">
-        <v>0.8822371959686279</v>
+        <v>0.8865099549293518</v>
       </c>
       <c r="G14">
-        <v>0.8865099549293518</v>
+        <v>0.8843570351600647</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -741,7 +741,7 @@
         <v>0.9641068577766418</v>
       </c>
       <c r="G15">
-        <v>0.9641068577766418</v>
+        <v>0.9741235375404358</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -761,10 +761,10 @@
         <v>0.5060648918151855</v>
       </c>
       <c r="F16">
-        <v>0.5181587934494019</v>
+        <v>0.5249014496803284</v>
       </c>
       <c r="G16">
-        <v>0.5249014496803284</v>
+        <v>0.5680121183395386</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -780,10 +780,10 @@
         <v>0.6698240637779236</v>
       </c>
       <c r="F17">
-        <v>0.6549391150474548</v>
+        <v>0.6820027232170105</v>
       </c>
       <c r="G17">
-        <v>0.6820027232170105</v>
+        <v>0.7361298799514771</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -801,10 +801,10 @@
         <v>0.38161700963974</v>
       </c>
       <c r="F18">
-        <v>0.4006761610507965</v>
+        <v>0.4277211129665375</v>
       </c>
       <c r="G18">
-        <v>0.4277211129665375</v>
+        <v>0.4371542036533356</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -820,10 +820,10 @@
         <v>0.5127639174461365</v>
       </c>
       <c r="F19">
-        <v>0.5203277468681335</v>
+        <v>0.5649753212928772</v>
       </c>
       <c r="G19">
-        <v>0.5649753212928772</v>
+        <v>0.5718037486076355</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -841,10 +841,10 @@
         <v>0.4352207183837891</v>
       </c>
       <c r="F20">
-        <v>0.4265748262405396</v>
+        <v>0.4336481690406799</v>
       </c>
       <c r="G20">
-        <v>0.4336481690406799</v>
+        <v>0.4712682068347931</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -860,10 +860,10 @@
         <v>0.5637295842170715</v>
       </c>
       <c r="F21">
-        <v>0.5520464181900024</v>
+        <v>0.59531170129776</v>
       </c>
       <c r="G21">
-        <v>0.59531170129776</v>
+        <v>0.6073716878890991</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -881,10 +881,10 @@
         <v>0.4960165321826935</v>
       </c>
       <c r="F22">
-        <v>0.5287386178970337</v>
+        <v>0.5182593464851379</v>
       </c>
       <c r="G22">
-        <v>0.5182593464851379</v>
+        <v>0.5470234155654907</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -900,10 +900,10 @@
         <v>0.6224995851516724</v>
       </c>
       <c r="F23">
-        <v>0.6522198915481567</v>
+        <v>0.6814929246902466</v>
       </c>
       <c r="G23">
-        <v>0.6814929246902466</v>
+        <v>0.6759635806083679</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -921,10 +921,10 @@
         <v>0.3063552677631378</v>
       </c>
       <c r="F24">
-        <v>0.3260668218135834</v>
+        <v>0.3169974684715271</v>
       </c>
       <c r="G24">
-        <v>0.3169974684715271</v>
+        <v>0.364946186542511</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -940,10 +940,10 @@
         <v>0.4099955856800079</v>
       </c>
       <c r="F25">
-        <v>0.4283368587493896</v>
+        <v>0.4675022959709167</v>
       </c>
       <c r="G25">
-        <v>0.4675022959709167</v>
+        <v>0.4789956212043762</v>
       </c>
     </row>
   </sheetData>
